--- a/conf-core/src/test/resources/dataloader/slot-pairs-misc-failure-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/slot-pairs-misc-failure-test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader-tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="28620" windowHeight="13170"/>
   </bookViews>
@@ -105,11 +110,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,6 +121,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -167,7 +172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,7 +207,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,9 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -462,11 +465,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -476,11 +479,11 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -490,7 +493,7 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -501,24 +504,24 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -532,7 +535,7 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -543,7 +546,7 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
@@ -557,24 +560,24 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
     </row>
